--- a/va_facility_data_2025-02-20/Menominee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Menominee%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Menominee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Menominee%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Reea54d168dd74ac6a4958fc78f0cd411"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R72b5354896594e57a811a2a12896f673"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R23ee866a1110465cb45911aa0013dbf3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R858c9a9366f74cc4b91bce051ec5ac27"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3581ccaedffe48588c223d5ff554388c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd0d8fc35320e4655bd4d49c4212f0f78"/>
   </x:sheets>
 </x:workbook>
 </file>
